--- a/data/trans_dic/P30_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P30_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume fruta diariamente</t>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33,32%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33,11%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 34,74</t>
+          <t>7,26; 39,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,57; 53,03</t>
+          <t>21,73; 55,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 43,88</t>
+          <t>18,89; 53,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 38,49</t>
+          <t>15,92; 51,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,22; 50,7</t>
+          <t>10,03; 34,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 48,51</t>
+          <t>18,81; 45,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 31,22</t>
+          <t>12,55; 37,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,24; 48,17</t>
+          <t>19,1; 47,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,19; 40,65</t>
+          <t>11,01; 29,96</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 45,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,45; 41,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,8; 44,44</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>21,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 37,18</t>
+          <t>7,12; 33,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 32,31</t>
+          <t>6,41; 28,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 36,25</t>
+          <t>8,04; 33,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 31,2</t>
+          <t>8,64; 40,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 41,16</t>
+          <t>15,64; 39,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 35,28</t>
+          <t>20,57; 46,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 30,59</t>
+          <t>19,52; 45,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,64; 34,68</t>
+          <t>22,33; 48,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,18; 33,76</t>
+          <t>13,56; 31,34</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 32,46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 34,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 38,87</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,06; 50,41</t>
+          <t>20,92; 44,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,81; 49,96</t>
+          <t>21,06; 43,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,81; 47,28</t>
+          <t>22,33; 46,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,35</t>
+          <t>11,87; 33,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,43; 33,99</t>
+          <t>16,68; 33,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 23,47</t>
+          <t>17,93; 35,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 36,5</t>
+          <t>5,75; 19,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,47; 39,17</t>
+          <t>11,57; 27,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,86; 33,09</t>
+          <t>20,4; 34,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21,67; 36,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 27,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 26,89</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20,83%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,96; 28,43</t>
+          <t>14,9; 34,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 27,24</t>
+          <t>10,6; 26,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,79; 30,14</t>
+          <t>11,69; 29,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 21,31</t>
+          <t>16,41; 35,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 25,96</t>
+          <t>10,05; 24,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 22,58</t>
+          <t>10,7; 24,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 22,7</t>
+          <t>10,37; 25,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 24,51</t>
+          <t>10,14; 24,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 23,67</t>
+          <t>14,35; 26,2</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 23,72</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 24,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 27,18</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,27</t>
+          <t>8,69; 26,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 25,64</t>
+          <t>10,08; 26,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 21,79</t>
+          <t>8,56; 25,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 18,46</t>
+          <t>13,31; 34,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 17,31</t>
+          <t>3,88; 21,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 19,41</t>
+          <t>3,64; 20,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 18,09</t>
+          <t>0,0; 14,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 20,11</t>
+          <t>4,36; 26,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,95</t>
+          <t>8,34; 21,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,86; 21,35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 17,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 26,35</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 13,65</t>
+          <t>0,0; 16,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 16,95</t>
+          <t>2,39; 19,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 19,52</t>
+          <t>0,0; 15,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 25,92</t>
+          <t>4,35; 27,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 16,65</t>
+          <t>0,0; 19,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 23,34</t>
+          <t>0,0; 15,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,04; 18,01</t>
+          <t>0,0; 23,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,92</t>
+          <t>0,0; 47,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 18,8</t>
+          <t>2,27; 13,48</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 13,43</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 14,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 36,33</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,32; 26,9</t>
+          <t>15,6; 24,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,27; 30,2</t>
+          <t>16,46; 26,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,77; 28,99</t>
+          <t>17,3; 27,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,5</t>
+          <t>17,71; 28,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,02</t>
+          <t>14,52; 22,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,47</t>
+          <t>17,09; 25,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,07; 22,76</t>
+          <t>12,22; 19,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,57</t>
+          <t>16,48; 27,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,82</t>
+          <t>16,12; 22,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 24,59</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 21,81</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 26,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21878</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39083</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45076</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>49806</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25511</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36158</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28334</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46630</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47389</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>75241</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>73410</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>96435</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7773; 42575</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22973; 58855</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24097; 68789</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23208; 74385</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13446; 45887</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22588; 54683</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15381; 46250</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27787; 68898</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26527; 72211</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50195; 101756</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>48630; 104342</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63500; 129460</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21691</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28851</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51229</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43726</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40773</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39601</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56179</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72701</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62464</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>68452</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>107409</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12020; 55702</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9193; 40564</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12408; 51711</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19674; 92203</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>25821; 65393</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26061; 59130</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24657; 57273</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36257; 79267</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>45253; 104643</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40709; 87664</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40835; 97253</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65639; 151616</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51778</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42584</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45770</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37065</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63830</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>54104</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22088</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44234</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>115608</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96688</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67858</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81299</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33910; 72903</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28293; 59028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30729; 64484</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21391; 60910</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44044; 88152</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37530; 74008</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11525; 39303</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27741; 66654</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>86917; 148446</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>74483; 124394</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49335; 93082</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>56976; 112944</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44675</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28498</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30313</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51076</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35418</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31989</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29577</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35193</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80092</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60486</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59890</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86270</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27810; 63756</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17094; 43262</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18257; 45580</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33046; 72305</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21948; 53138</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19901; 45486</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17888; 43778</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21580; 52771</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>58131; 106108</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>44432; 82350</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44396; 79749</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62839; 112576</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25036</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23094</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19838</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34738</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12009</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9494</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17069</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37045</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32588</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24188</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51807</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13687; 42476</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13313; 35506</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10540; 31682</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20587; 53416</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4504; 25104</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3419; 18797</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13093</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5972; 36580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22820; 59218</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20006; 48225</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13647; 38184</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32797; 76874</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6747</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16442</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8332</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5065</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30534</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14334</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11272</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9542</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>46976</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18475</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2033; 16316</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13806</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5997; 37815</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 27275</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15918</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 26294</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 98484</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5612; 33279</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4408; 25563</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2043; 28164</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16091; 125457</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>178344</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>161697</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>174326</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>240357</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>188825</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>177042</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>129015</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>229838</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>367169</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>338739</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>303342</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>470195</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>138993; 219642</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>125449; 201218</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>136528; 219420</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>185522; 303727</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>150320; 237118</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>143729; 216585</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>100799; 163535</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>182116; 304170</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>310583; 430209</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>291712; 394257</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>250041; 351970</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>401272; 563020</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>